--- a/R1_documentation/2. R1_User Story Map_Team 3.xlsx
+++ b/R1_documentation/2. R1_User Story Map_Team 3.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\RODRIGO\GitHub\MLDB\r1\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\RODRIGO\GitHub\MLDB\R1_documentation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{01341C6C-9700-4A5F-8D0D-16DCFFF28A5A}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FC70B144-AF63-4F5F-97C5-5521C00EA819}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="23880" yWindow="-108" windowWidth="22308" windowHeight="13176" xr2:uid="{A870447A-331E-4F4D-9CF2-591C50153538}"/>
   </bookViews>
@@ -84,7 +84,7 @@
     <t>Iteration 4</t>
   </si>
   <si>
-    <t>MLDB - User Story Map</t>
+    <t>Movie Library Database (MLDB) - User Story Map</t>
   </si>
 </sst>
 </file>
@@ -183,7 +183,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="9">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -282,6 +282,15 @@
       <top/>
       <bottom style="medium">
         <color rgb="FFC00000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
       </bottom>
       <diagonal/>
     </border>
@@ -320,11 +329,11 @@
     <xf numFmtId="0" fontId="9" fillId="2" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -644,7 +653,7 @@
   <dimension ref="A1:H12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -664,12 +673,12 @@
       </c>
       <c r="B1" s="3"/>
       <c r="C1" s="4"/>
-      <c r="D1" s="23" t="s">
+      <c r="D1" s="24" t="s">
         <v>16</v>
       </c>
-      <c r="E1" s="23"/>
-      <c r="F1" s="23"/>
-      <c r="G1" s="23"/>
+      <c r="E1" s="24"/>
+      <c r="F1" s="24"/>
+      <c r="G1" s="24"/>
       <c r="H1" s="4"/>
     </row>
     <row r="2" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
@@ -697,7 +706,7 @@
         <v>3</v>
       </c>
       <c r="B3" s="3"/>
-      <c r="C3" s="24" t="s">
+      <c r="C3" s="23" t="s">
         <v>6</v>
       </c>
       <c r="D3" s="18" t="s">
@@ -717,7 +726,7 @@
         <v>4</v>
       </c>
       <c r="B4" s="3"/>
-      <c r="C4" s="24"/>
+      <c r="C4" s="23"/>
       <c r="D4" s="11"/>
       <c r="E4" s="12"/>
       <c r="F4" s="11"/>
@@ -729,7 +738,7 @@
         <v>5</v>
       </c>
       <c r="B5" s="3"/>
-      <c r="C5" s="24"/>
+      <c r="C5" s="23"/>
       <c r="D5" s="14"/>
       <c r="E5" s="15" t="s">
         <v>10</v>
@@ -743,7 +752,7 @@
     <row r="6" spans="1:8" ht="18" x14ac:dyDescent="0.35">
       <c r="A6" s="3"/>
       <c r="B6" s="3"/>
-      <c r="C6" s="24"/>
+      <c r="C6" s="23"/>
       <c r="D6" s="9"/>
       <c r="E6" s="8"/>
       <c r="F6" s="21" t="s">
@@ -757,7 +766,7 @@
     <row r="7" spans="1:8" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A7" s="3"/>
       <c r="B7" s="3"/>
-      <c r="C7" s="24"/>
+      <c r="C7" s="23"/>
       <c r="D7" s="9"/>
       <c r="E7" s="8"/>
       <c r="F7" s="9"/>
@@ -767,7 +776,7 @@
     <row r="8" spans="1:8" ht="18" x14ac:dyDescent="0.35">
       <c r="A8" s="3"/>
       <c r="B8" s="3"/>
-      <c r="C8" s="24"/>
+      <c r="C8" s="23"/>
       <c r="D8" s="11"/>
       <c r="E8" s="19" t="s">
         <v>14</v>
@@ -781,7 +790,7 @@
     <row r="9" spans="1:8" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A9" s="3"/>
       <c r="B9" s="3"/>
-      <c r="C9" s="24"/>
+      <c r="C9" s="23"/>
       <c r="D9" s="14"/>
       <c r="E9" s="15"/>
       <c r="F9" s="14"/>
@@ -791,7 +800,7 @@
     <row r="10" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A10" s="3"/>
       <c r="B10" s="3"/>
-      <c r="C10" s="24"/>
+      <c r="C10" s="23"/>
       <c r="D10" s="1"/>
       <c r="E10" s="1"/>
       <c r="F10" s="1"/>
@@ -801,7 +810,7 @@
     <row r="11" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A11" s="3"/>
       <c r="B11" s="3"/>
-      <c r="C11" s="24"/>
+      <c r="C11" s="23"/>
       <c r="D11" s="1"/>
       <c r="E11" s="1"/>
       <c r="F11" s="1"/>
@@ -811,7 +820,7 @@
     <row r="12" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A12" s="3"/>
       <c r="B12" s="3"/>
-      <c r="C12" s="24"/>
+      <c r="C12" s="23"/>
       <c r="D12" s="1"/>
       <c r="E12" s="1"/>
       <c r="F12" s="1"/>
